--- a/medicine/Mort/Cimetière_de_Champigny-sur-Marne/Cimetière_de_Champigny-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_de_Champigny-sur-Marne/Cimetière_de_Champigny-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Champigny-sur-Marne</t>
+          <t>Cimetière_de_Champigny-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Champigny-sur-Marne, dit ancien cimetière ou cimetière du Centre, est un des cimetières municipaux de la commune de Champigny-sur-Marne dans le Val-de-Marne. 
-Il abrite la tombe de Georges Marchais (1920-1997), secrétaire général du Parti communiste français de 1972 à 1994[1],[2].
+Il abrite la tombe de Georges Marchais (1920-1997), secrétaire général du Parti communiste français de 1972 à 1994,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Champigny-sur-Marne</t>
+          <t>Cimetière_de_Champigny-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Champigny-sur-Marne</t>
+          <t>Cimetière_de_Champigny-sur-Marne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Bonnet (1904-1983), pionnier de la Formule 1[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Bonnet (1904-1983), pionnier de la Formule 1
 Émilie Bouchaud dite Polaire (1874-1939), actrice et artiste de café-concert
 Ray David Grammont dit Tonton David (1967-2021), chanteur de reggae
 Georges Marchais (1920-1997), secrétaire général du PCF, député de 1973 à 1997, et Liliane Marchais (1935-2020)
